--- a/public/data/soil/soil_table_central_african_republic.xlsx
+++ b/public/data/soil/soil_table_central_african_republic.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7013.4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187840.1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.272</v>
+        <v>0.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.058</v>
+        <v>7.472</v>
       </c>
     </row>
     <row r="3">
@@ -850,28 +850,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>416.9</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>386.8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10762.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>379514.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03</v>
+        <v>0.047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.75</v>
+        <v>0.817</v>
       </c>
       <c r="K3" t="n">
-        <v>35.141</v>
+        <v>42.826</v>
       </c>
     </row>
     <row r="4">
@@ -885,25 +885,25 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>1439.6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>918</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>197.6</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.686</v>
+        <v>2.95</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -920,28 +920,28 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>4145.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>121672.8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1857.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.429</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>47.95</v>
+        <v>56.726</v>
       </c>
       <c r="K5" t="n">
-        <v>0.821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -955,28 +955,28 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>8773.1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>348.9</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>69973.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2298.4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7.539</v>
+        <v>7.182</v>
       </c>
       <c r="I6" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>45.537</v>
+        <v>57.121</v>
       </c>
       <c r="K6" t="n">
-        <v>2.583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -990,28 +990,28 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>1714.6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>54063.9</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1048.3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.886</v>
+        <v>25.255</v>
       </c>
       <c r="K7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1025,28 +1025,28 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>10351.9</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>84264.1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2317.3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13.578</v>
+        <v>3.594</v>
       </c>
       <c r="I8" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>59.833</v>
+        <v>73.437</v>
       </c>
       <c r="K8" t="n">
-        <v>1.267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1060,28 +1060,28 @@
         <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>6894</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>323003.4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>20214.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.154</v>
+        <v>0.005</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.395</v>
+        <v>2.236</v>
       </c>
       <c r="K9" t="n">
-        <v>0.063</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="10">
@@ -1095,25 +1095,25 @@
         <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>8555.6</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>166751.9</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.945</v>
+        <v>0.004</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.73</v>
+        <v>32.834</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>4728.2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>121134.2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>41.3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.987</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.72</v>
+        <v>22.858</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1165,28 +1165,28 @@
         <v>44</v>
       </c>
       <c r="D12" t="n">
-        <v>12318.8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>729.7</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>99698.4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4703.3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.095</v>
+        <v>3.044</v>
       </c>
       <c r="I12" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.754</v>
+        <v>68.862</v>
       </c>
       <c r="K12" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1200,28 +1200,28 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>21946</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>11424.5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42485.6</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>117416.7</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.702</v>
+        <v>1.055</v>
       </c>
       <c r="I13" t="n">
-        <v>0.469</v>
+        <v>0.263</v>
       </c>
       <c r="J13" t="n">
-        <v>1.731</v>
+        <v>2.213</v>
       </c>
       <c r="K13" t="n">
-        <v>7.018</v>
+        <v>9.438</v>
       </c>
     </row>
     <row r="14">
@@ -1235,28 +1235,28 @@
         <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>21706.9</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3177.2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>244104.5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>142556.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.458</v>
+        <v>0.576</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.534</v>
+        <v>5.292</v>
       </c>
       <c r="K14" t="n">
-        <v>2.969</v>
+        <v>5.165</v>
       </c>
     </row>
     <row r="15">
@@ -1270,28 +1270,28 @@
         <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>3908.1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>250.7</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>13380.8</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9629.2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.826</v>
+        <v>1.789</v>
       </c>
       <c r="I15" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.395</v>
+        <v>20.343</v>
       </c>
       <c r="K15" t="n">
-        <v>8.971</v>
+        <v>17.818</v>
       </c>
     </row>
     <row r="16">
@@ -1305,28 +1305,28 @@
         <v>49</v>
       </c>
       <c r="D16" t="n">
-        <v>871.3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>352.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>56121.8</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>21255.1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.819</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>28.683</v>
+        <v>41.689</v>
       </c>
       <c r="K16" t="n">
-        <v>8.663</v>
+        <v>9.039</v>
       </c>
     </row>
     <row r="17">
@@ -1340,28 +1340,28 @@
         <v>51</v>
       </c>
       <c r="D17" t="n">
-        <v>11906.4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>4349.9</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>63656.2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8189</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.156</v>
+        <v>3.557</v>
       </c>
       <c r="I17" t="n">
-        <v>1.56</v>
+        <v>0.471</v>
       </c>
       <c r="J17" t="n">
-        <v>49.822</v>
+        <v>65.797</v>
       </c>
       <c r="K17" t="n">
-        <v>3.059</v>
+        <v>3.034</v>
       </c>
     </row>
     <row r="18">
@@ -1375,28 +1375,28 @@
         <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>10518.1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3687.9</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>47145.7</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4929.6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>17.941</v>
+        <v>41.429</v>
       </c>
       <c r="I18" t="n">
-        <v>6.664</v>
+        <v>1.909</v>
       </c>
       <c r="J18" t="n">
-        <v>39.256</v>
+        <v>50.862</v>
       </c>
       <c r="K18" t="n">
-        <v>4.803</v>
+        <v>2.021</v>
       </c>
     </row>
     <row r="19">
@@ -1410,28 +1410,28 @@
         <v>53</v>
       </c>
       <c r="D19" t="n">
-        <v>3766.9</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>74.6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>59.7</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>129.9</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.973</v>
+        <v>12.226</v>
       </c>
       <c r="I19" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1445,28 +1445,28 @@
         <v>55</v>
       </c>
       <c r="D20" t="n">
-        <v>6091.3</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>54903.9</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>747.4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.544</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>54.088</v>
+        <v>83.688</v>
       </c>
       <c r="K20" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1480,28 +1480,28 @@
         <v>56</v>
       </c>
       <c r="D21" t="n">
-        <v>9901.6</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>6516</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>100307.8</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>42870.8</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>7.867</v>
+        <v>1.183</v>
       </c>
       <c r="I21" t="n">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.655</v>
+        <v>107.177</v>
       </c>
       <c r="K21" t="n">
-        <v>24.568</v>
+        <v>22.839</v>
       </c>
     </row>
     <row r="22">
@@ -1515,28 +1515,28 @@
         <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>9070</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>508.6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>77868.2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1140.9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>9.736</v>
+        <v>5.501</v>
       </c>
       <c r="I22" t="n">
-        <v>0.518</v>
+        <v>0.154</v>
       </c>
       <c r="J22" t="n">
-        <v>57.636</v>
+        <v>74.845</v>
       </c>
       <c r="K22" t="n">
-        <v>1.316</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="23">
@@ -1550,28 +1550,28 @@
         <v>59</v>
       </c>
       <c r="D23" t="n">
-        <v>22293.9</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>115961.5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>769.2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.978</v>
+        <v>0.858</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.988</v>
+        <v>18.206</v>
       </c>
       <c r="K23" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1585,28 +1585,28 @@
         <v>60</v>
       </c>
       <c r="D24" t="n">
-        <v>3331.2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>29443.9</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>293.1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.916</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>22.278</v>
+        <v>39.106</v>
       </c>
       <c r="K24" t="n">
-        <v>0.524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1620,28 +1620,28 @@
         <v>61</v>
       </c>
       <c r="D25" t="n">
-        <v>9283.4</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>843.8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>72809.2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5969.4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.771</v>
+        <v>3.277</v>
       </c>
       <c r="I25" t="n">
-        <v>0.931</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>27.228</v>
+        <v>40.75</v>
       </c>
       <c r="K25" t="n">
-        <v>6.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1655,28 +1655,28 @@
         <v>62</v>
       </c>
       <c r="D26" t="n">
-        <v>24378.8</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>263546.5</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>36.2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.239</v>
+        <v>0.201</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>13.076</v>
+        <v>17.887</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1690,28 +1690,28 @@
         <v>64</v>
       </c>
       <c r="D27" t="n">
-        <v>974.9</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>29568.7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>112177.4</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.633</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.375</v>
+        <v>36.956</v>
       </c>
       <c r="K27" t="n">
-        <v>22.693</v>
+        <v>28.589</v>
       </c>
     </row>
     <row r="28">
@@ -1725,28 +1725,28 @@
         <v>65</v>
       </c>
       <c r="D28" t="n">
-        <v>74.4</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10660.6</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6391</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>8.71</v>
+        <v>19.184</v>
       </c>
       <c r="K28" t="n">
-        <v>2.614</v>
+        <v>5.401</v>
       </c>
     </row>
     <row r="29">
@@ -1760,28 +1760,28 @@
         <v>67</v>
       </c>
       <c r="D29" t="n">
-        <v>29541.7</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>268.2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>100974.2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1360.4</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>22.106</v>
+        <v>19.57</v>
       </c>
       <c r="I29" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>46.152</v>
+        <v>57.014</v>
       </c>
       <c r="K29" t="n">
-        <v>0.822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1795,28 +1795,28 @@
         <v>68</v>
       </c>
       <c r="D30" t="n">
-        <v>2104.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>858.7</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41274.5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>16531.7</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.899</v>
+        <v>32.048</v>
       </c>
       <c r="K30" t="n">
-        <v>6.94</v>
+        <v>8.953</v>
       </c>
     </row>
     <row r="31">
@@ -1830,28 +1830,28 @@
         <v>69</v>
       </c>
       <c r="D31" t="n">
-        <v>6092.3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>94.5</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>96773.1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8829.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.061</v>
+        <v>0.252</v>
       </c>
       <c r="I31" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>64.23</v>
+        <v>78.709</v>
       </c>
       <c r="K31" t="n">
-        <v>6.063</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="32">
@@ -1865,28 +1865,28 @@
         <v>71</v>
       </c>
       <c r="D32" t="n">
-        <v>15133.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1128.8</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>33923.6</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7311.2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>13.729</v>
+        <v>24.679</v>
       </c>
       <c r="I32" t="n">
-        <v>1.384</v>
+        <v>2.283</v>
       </c>
       <c r="J32" t="n">
-        <v>28.585</v>
+        <v>31.061</v>
       </c>
       <c r="K32" t="n">
-        <v>5.96</v>
+        <v>2.668</v>
       </c>
     </row>
     <row r="33">
@@ -1900,28 +1900,28 @@
         <v>72</v>
       </c>
       <c r="D33" t="n">
-        <v>2450.8</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>101.8</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>21452.5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>18202.7</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>3.567</v>
+        <v>3.225</v>
       </c>
       <c r="I33" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>9.262</v>
+        <v>9.268</v>
       </c>
       <c r="K33" t="n">
-        <v>8.259</v>
+        <v>12.058</v>
       </c>
     </row>
     <row r="34">
@@ -1935,28 +1935,28 @@
         <v>73</v>
       </c>
       <c r="D34" t="n">
-        <v>459.8</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>97.2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>50641</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26784.1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.513</v>
+        <v>38.665</v>
       </c>
       <c r="K34" t="n">
-        <v>6.384</v>
+        <v>6.692</v>
       </c>
     </row>
     <row r="35">
@@ -1970,28 +1970,28 @@
         <v>74</v>
       </c>
       <c r="D35" t="n">
-        <v>13078.2</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>65087.9</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>18095</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.71</v>
+        <v>4.943</v>
       </c>
       <c r="I35" t="n">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.71</v>
+        <v>61.486</v>
       </c>
       <c r="K35" t="n">
-        <v>9.368</v>
+        <v>10.588</v>
       </c>
     </row>
     <row r="36">
@@ -2005,28 +2005,28 @@
         <v>76</v>
       </c>
       <c r="D36" t="n">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>11926.8</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>22435.9</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.655</v>
+        <v>4.134</v>
       </c>
       <c r="K36" t="n">
-        <v>1.646</v>
+        <v>5.027</v>
       </c>
     </row>
     <row r="37">
@@ -2040,28 +2040,28 @@
         <v>77</v>
       </c>
       <c r="D37" t="n">
-        <v>2348.9</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>126769.3</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14927.4</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.477</v>
+        <v>75.03</v>
       </c>
       <c r="K37" t="n">
-        <v>5.768</v>
+        <v>1.517</v>
       </c>
     </row>
     <row r="38">
@@ -2075,28 +2075,28 @@
         <v>78</v>
       </c>
       <c r="D38" t="n">
-        <v>278.3</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>29251.8</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6314.9</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>20.25</v>
+        <v>30.105</v>
       </c>
       <c r="K38" t="n">
-        <v>2.331</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="39">
@@ -2110,28 +2110,28 @@
         <v>79</v>
       </c>
       <c r="D39" t="n">
-        <v>1245.4</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>173.2</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>112688.5</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>48489.5</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.038</v>
+        <v>0.012</v>
       </c>
       <c r="I39" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.639</v>
+        <v>34.793</v>
       </c>
       <c r="K39" t="n">
-        <v>5.465</v>
+        <v>4.461</v>
       </c>
     </row>
     <row r="40">
@@ -2145,28 +2145,28 @@
         <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>2163.3</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>173.8</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>108425.1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15735.4</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.197</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.085</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>61.889</v>
+        <v>73.658</v>
       </c>
       <c r="K40" t="n">
-        <v>6.612</v>
+        <v>1.996</v>
       </c>
     </row>
     <row r="41">
@@ -2180,28 +2180,28 @@
         <v>82</v>
       </c>
       <c r="D41" t="n">
-        <v>242.8</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>120427.5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>117755.5</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>80.646</v>
+        <v>90.746</v>
       </c>
       <c r="K41" t="n">
-        <v>84.064</v>
+        <v>85.563</v>
       </c>
     </row>
     <row r="42">
@@ -2215,28 +2215,28 @@
         <v>83</v>
       </c>
       <c r="D42" t="n">
-        <v>532.6</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>103.9</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>42494.5</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>32181.9</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.648</v>
+        <v>41.158</v>
       </c>
       <c r="K42" t="n">
-        <v>15.096</v>
+        <v>19.437</v>
       </c>
     </row>
     <row r="43">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>35956.8</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>184147.2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2268,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.868</v>
+        <v>23.847</v>
       </c>
       <c r="K43" t="n">
-        <v>116.88</v>
+        <v>129.105</v>
       </c>
     </row>
     <row r="44">
@@ -2288,25 +2288,25 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>140.5</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>4761.6</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>164475.5</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.408</v>
+        <v>0.662</v>
       </c>
       <c r="K44" t="n">
-        <v>58.648</v>
+        <v>69.189</v>
       </c>
     </row>
     <row r="45">
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>43806.8</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137879.5</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>31.779</v>
+        <v>17.268</v>
       </c>
       <c r="K45" t="n">
-        <v>79.455</v>
+        <v>97.443</v>
       </c>
     </row>
     <row r="46">
@@ -2355,28 +2355,28 @@
         <v>88</v>
       </c>
       <c r="D46" t="n">
-        <v>781.6</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>123.2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>27751.1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>36105.7</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>17.459</v>
+        <v>23.081</v>
       </c>
       <c r="K46" t="n">
-        <v>17.8</v>
+        <v>31.632</v>
       </c>
     </row>
     <row r="47">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>41423</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>9.138</v>
+        <v>12.207</v>
       </c>
     </row>
     <row r="48">
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>12425.2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>120148.7</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.727</v>
+        <v>1.83</v>
       </c>
       <c r="K48" t="n">
-        <v>49.135</v>
+        <v>55.746</v>
       </c>
     </row>
     <row r="49">
@@ -2460,28 +2460,28 @@
         <v>92</v>
       </c>
       <c r="D49" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>129.3</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1149.9</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>448.9</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.402</v>
+        <v>2.692</v>
       </c>
       <c r="I49" t="n">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.103</v>
+        <v>6.235</v>
       </c>
       <c r="K49" t="n">
-        <v>0.656</v>
+        <v>1.947</v>
       </c>
     </row>
     <row r="50">
@@ -2495,28 +2495,28 @@
         <v>93</v>
       </c>
       <c r="D50" t="n">
-        <v>6774.6</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>444.8</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>14560.6</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>3237.7</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>7.53</v>
+        <v>18.217</v>
       </c>
       <c r="I50" t="n">
-        <v>0.483</v>
+        <v>0.394</v>
       </c>
       <c r="J50" t="n">
-        <v>17.23</v>
+        <v>37.405</v>
       </c>
       <c r="K50" t="n">
-        <v>3.669</v>
+        <v>6.363</v>
       </c>
     </row>
     <row r="51">
@@ -2530,28 +2530,28 @@
         <v>95</v>
       </c>
       <c r="D51" t="n">
-        <v>39.2</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>69.3</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>12244.4</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>586967.8</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.487</v>
+        <v>0.298</v>
       </c>
       <c r="K51" t="n">
-        <v>50.513</v>
+        <v>54.989</v>
       </c>
     </row>
     <row r="52">
@@ -2565,28 +2565,28 @@
         <v>96</v>
       </c>
       <c r="D52" t="n">
-        <v>409.8</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>308.1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>14123.8</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>82493.2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.339</v>
+        <v>1.466</v>
       </c>
       <c r="K52" t="n">
-        <v>2.277</v>
+        <v>2.574</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_central_african_republic.xlsx
+++ b/public/data/soil/soil_table_central_african_republic.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1939.3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -885,13 +885,13 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1129.9</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23685.5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5147.5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>41427.1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7362.6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1207.9</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>32839.1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>981.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="H9" t="n">
         <v>0.005</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5163.9</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6361</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1165,13 +1165,13 @@
         <v>44</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>708.9</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>8296.2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1450.3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3090.8</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5777.9</v>
       </c>
       <c r="H13" t="n">
         <v>1.055</v>
@@ -1235,16 +1235,16 @@
         <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1495.5</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>11531.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3960.3</v>
       </c>
       <c r="H14" t="n">
         <v>0.576</v>
@@ -1270,16 +1270,16 @@
         <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>305.2</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3447.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1952.3</v>
       </c>
       <c r="H15" t="n">
         <v>1.789</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14197</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2828.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         <v>51</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>131.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3660.4</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>883.9</v>
       </c>
       <c r="H17" t="n">
         <v>3.557</v>
@@ -1375,16 +1375,16 @@
         <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>14131.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1811.6</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>12484</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>871.5</v>
       </c>
       <c r="H18" t="n">
         <v>41.429</v>
@@ -1410,7 +1410,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6206.4</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1445,16 +1445,16 @@
         <v>55</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>234.3</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>23814</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>271.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>56</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>380.3</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>11083.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3225.2</v>
       </c>
       <c r="H21" t="n">
         <v>1.183</v>
@@ -1515,16 +1515,16 @@
         <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1494.3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>32186.6</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>5.501</v>
@@ -1550,13 +1550,13 @@
         <v>59</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4934.4</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>26150.2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>60</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1032.9</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>46579.3</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         <v>61</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4757.9</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>42386.1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>62</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2051.4</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>38900.2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3358</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2828.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1228.9</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1760,13 +1760,13 @@
         <v>67</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1433.4</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2225.7</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3055.5</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>325.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1598.9</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1865,16 +1865,16 @@
         <v>71</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6904.6</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>747.4</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>18092.7</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>892.4</v>
       </c>
       <c r="H32" t="n">
         <v>24.679</v>
@@ -1900,16 +1900,16 @@
         <v>72</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1192.8</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>479.3</v>
       </c>
       <c r="H33" t="n">
         <v>3.225</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9301.7</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1864.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>74</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>101.9</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>835.3</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="H35" t="n">
         <v>4.943</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>549.2</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>297.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>10080.7</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>284.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6234.5</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>109.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>459.6</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="H39" t="n">
         <v>0.012</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>31466.4</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1807.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2379.1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>7380.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>405.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3490.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6660.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>169.9</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2359.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1690.6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1872.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>6118.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1687.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2460,16 +2460,16 @@
         <v>92</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>613.2</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>941.1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>337.9</v>
       </c>
       <c r="H49" t="n">
         <v>2.692</v>
@@ -2495,16 +2495,16 @@
         <v>93</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3674.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>149.8</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>11950.4</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>776.8</v>
       </c>
       <c r="H50" t="n">
         <v>18.217</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2015.2</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>79860</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>788.6</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2842.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
